--- a/data_year/zb/国民经济核算/资金流量表(实物交易)/实物交易/资金来源.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(实物交易)/实物交易/资金来源.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,1615 +603,959 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.15990970594</v>
+        <v>11466.3370013079</v>
       </c>
       <c r="C2" t="n">
-        <v>111.17</v>
+        <v>2748.03668278315</v>
       </c>
       <c r="D2" t="n">
-        <v>8.390000000000001</v>
+        <v>1616.8047858</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>-2390.2</v>
+        <v>-15097.60101504</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>98000.52785385599</v>
+        <v>399759.54431409</v>
       </c>
       <c r="I2" t="n">
-        <v>10510.0919</v>
+        <v>56850.276715</v>
       </c>
       <c r="J2" t="n">
-        <v>52299.111688864</v>
+        <v>190967.992555868</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>98522.9958851383</v>
+        <v>402513.713615745</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>84.17</v>
+        <v>2428.6760257363</v>
       </c>
       <c r="O2" t="n">
-        <v>99214.60000000001</v>
+        <v>401512.8</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>35308.4</v>
+        <v>192300.19898496</v>
       </c>
       <c r="T2" t="n">
-        <v>2938.00263232725</v>
+        <v>5174.52257056832</v>
       </c>
       <c r="U2" t="n">
-        <v>2118.8631</v>
+        <v>17680.81</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>11975.3053093033</v>
+        <v>52672.5909182424</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>2385.6</v>
+        <v>16207.243134</v>
       </c>
       <c r="AB2" t="n">
-        <v>2644.9</v>
+        <v>20584.5011</v>
       </c>
       <c r="AC2" t="n">
-        <v>980.564076560261</v>
+        <v>6137.51478653894</v>
       </c>
       <c r="AD2" t="n">
-        <v>3398.240031328</v>
+        <v>15378.6528496921</v>
       </c>
       <c r="AE2" t="n">
-        <v>9535.0870862662</v>
+        <v>72076.40602184679</v>
       </c>
       <c r="AF2" t="n">
-        <v>14103.671931328</v>
+        <v>77405.6422732115</v>
       </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="n">
-        <v>2946.39263232725</v>
+        <v>6791.32735636832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1817.9549920361</v>
+        <v>14026.2673595599</v>
       </c>
       <c r="C3" t="n">
-        <v>109.27</v>
+        <v>3211.54652427159</v>
       </c>
       <c r="D3" t="n">
-        <v>10.33</v>
+        <v>2436.88325064</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>-2324.7</v>
+        <v>-12163.3</v>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>108068.22935257</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>10089.87</v>
+        <v>82711.24572000001</v>
       </c>
       <c r="J3" t="n">
-        <v>57600.3232473</v>
+        <v>222528.353703888</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>108771.130088881</v>
+        <v>470145.444669974</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>92.84</v>
+        <v>3075.524</v>
       </c>
       <c r="O3" t="n">
-        <v>109655.2</v>
+        <v>473104.048647262</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>40396.6</v>
+        <v>228829.248313902</v>
       </c>
       <c r="T3" t="n">
-        <v>3449.23015631822</v>
+        <v>6219.44472476208</v>
       </c>
       <c r="U3" t="n">
-        <v>3363.0008</v>
+        <v>22823.75</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>12968.1697732936</v>
+        <v>62270.8052059079</v>
       </c>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="n">
-        <v>2748</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>3101.9</v>
-      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>1160.5988830443</v>
+        <v>7588.84553154888</v>
       </c>
       <c r="AD3" t="n">
-        <v>3583.53864438</v>
+        <v>18179.7255844843</v>
       </c>
       <c r="AE3" t="n">
-        <v>12191.4546750804</v>
+        <v>44438.8628911087</v>
       </c>
       <c r="AF3" t="n">
-        <v>13875.51864438</v>
+        <v>107178.041828756</v>
       </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
-        <v>3459.56015631822</v>
+        <v>8656.32797540208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2539.77904713419</v>
+        <v>15975.699022643</v>
       </c>
       <c r="C4" t="n">
-        <v>115.81</v>
+        <v>4093.77579032463</v>
       </c>
       <c r="D4" t="n">
-        <v>20.51</v>
+        <v>3023.71713953408</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>-3094.1</v>
+        <v>-14632.4</v>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>119095.70001727</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>10037.0783</v>
+        <v>103907.53375</v>
       </c>
       <c r="J4" t="n">
-        <v>64580.16645304</v>
+        <v>256676.808411383</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>120170.410323011</v>
+        <v>518431.549566028</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>110.53</v>
+        <v>4411.210982584</v>
       </c>
       <c r="O4" t="n">
-        <v>120332.7</v>
+        <v>519470.099169899</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>45422.11</v>
+        <v>242844.098793121</v>
       </c>
       <c r="T4" t="n">
-        <v>3655.70090519552</v>
+        <v>6622.54401217583</v>
       </c>
       <c r="U4" t="n">
-        <v>3542.89</v>
+        <v>25818.1619120047</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>14761.7561</v>
+        <v>68866.0282853542</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>3471.5</v>
+        <v>23930.6977</v>
       </c>
       <c r="AB4" t="n">
-        <v>4048.7</v>
+        <v>31411.0283</v>
       </c>
       <c r="AC4" t="n">
-        <v>1164.77421550095</v>
+        <v>8708.27953300119</v>
       </c>
       <c r="AD4" t="n">
-        <v>4085.19525416</v>
+        <v>17606.9309466254</v>
       </c>
       <c r="AE4" t="n">
-        <v>14767.6432626351</v>
+        <v>105843.866467649</v>
       </c>
       <c r="AF4" t="n">
-        <v>14348.61355416</v>
+        <v>130019.451469534</v>
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>3676.21090519552</v>
+        <v>9646.26115170991</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3193.33963480569</v>
+        <v>17800.8965164729</v>
       </c>
       <c r="C5" t="n">
-        <v>192.26</v>
+        <v>3305.04944049902</v>
       </c>
       <c r="D5" t="n">
-        <v>37.28</v>
+        <v>3944.13356723779</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-2964.91485281719</v>
+        <v>-14552.0992661429</v>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>134977.01566547</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>11557.62</v>
+        <v>87877.793724</v>
       </c>
       <c r="J5" t="n">
-        <v>71828.46030537999</v>
+        <v>299072.279678504</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>136421.247805692</v>
+        <v>582656.905328346</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>126.15</v>
+        <v>5127.9177</v>
       </c>
       <c r="O5" t="n">
-        <v>135822.8</v>
+        <v>588018.755871842</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>55172.3851471828</v>
+        <v>272458.256605699</v>
       </c>
       <c r="T5" t="n">
-        <v>4041.34349745726</v>
+        <v>7707.34359611097</v>
       </c>
       <c r="U5" t="n">
-        <v>4195.8818</v>
+        <v>29030.3639</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>17516.1702</v>
+        <v>73536.4115246</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>4016.4</v>
+        <v>28743.9264</v>
       </c>
       <c r="AB5" t="n">
-        <v>4882.9</v>
+        <v>35993.5842</v>
       </c>
       <c r="AC5" t="n">
-        <v>1519.85034782609</v>
+        <v>10090.9631662903</v>
       </c>
       <c r="AD5" t="n">
-        <v>4095.19765742</v>
+        <v>23563.1681254065</v>
       </c>
       <c r="AE5" t="n">
-        <v>17808.3717826318</v>
+        <v>121659.734182763</v>
       </c>
       <c r="AF5" t="n">
-        <v>15971.22765742</v>
+        <v>119873.928989906</v>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>4078.62349745726</v>
+        <v>11651.4771633488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4109.57478761265</v>
+        <v>16488.5668194302</v>
       </c>
       <c r="C6" t="n">
-        <v>192.49</v>
+        <v>3722.38381265012</v>
       </c>
       <c r="D6" t="n">
-        <v>80.75320000000001</v>
+        <v>4155.04333637012</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>-4235.60129406663</v>
+        <v>-16151.57</v>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>159453.566820752</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>13186.32</v>
+        <v>100225.70315057</v>
       </c>
       <c r="J6" t="n">
-        <v>81065.144465712</v>
+        <v>328602.760376038</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>161348.78184535</v>
+        <v>644879.278299285</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>175.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>159878.3</v>
-      </c>
+        <v>5869.4274</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>68090.0987059334</v>
+        <v>299509.478419687</v>
       </c>
       <c r="T6" t="n">
-        <v>1494.47405628342</v>
+        <v>8161.87595243448</v>
       </c>
       <c r="U6" t="n">
-        <v>5408.8443</v>
+        <v>32362.8343</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>20608.8261</v>
+        <v>78643.1124359994</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>4627.4</v>
+        <v>33680.572168</v>
       </c>
       <c r="AB6" t="n">
-        <v>5780.3</v>
+        <v>40438.81373</v>
       </c>
       <c r="AC6" t="n">
-        <v>2020.72</v>
+        <v>10672.2051321483</v>
       </c>
       <c r="AD6" t="n">
-        <v>4763.409462144</v>
+        <v>23715.7322156423</v>
       </c>
       <c r="AE6" t="n">
-        <v>21946.8390876126</v>
+        <v>133642.992149579</v>
       </c>
       <c r="AF6" t="n">
-        <v>18317.319462144</v>
+        <v>133533.246578863</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>1575.22725628342</v>
+        <v>12316.9192888046</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5085.50314238028</v>
+        <v>17445.6658646293</v>
       </c>
       <c r="C7" t="n">
-        <v>393.646701482856</v>
+        <v>3437.69954155695</v>
       </c>
       <c r="D7" t="n">
-        <v>485.061176799</v>
+        <v>3876.18897518434</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>-10209.0533722173</v>
+        <v>-22346.4946725484</v>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>183617.408975621</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>15451.939</v>
+        <v>100647.830818652</v>
       </c>
       <c r="J7" t="n">
-        <v>93296.872025937</v>
+        <v>357432.025853695</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>185572.364120577</v>
+        <v>685655.860277758</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>306.0631</v>
-      </c>
-      <c r="O7" t="n">
-        <v>184937.4</v>
-      </c>
+        <v>6743.0122</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>75370.8200856719</v>
+        <v>304439.09807552</v>
       </c>
       <c r="T7" t="n">
-        <v>1781.96573481963</v>
+        <v>8750.59887493405</v>
       </c>
       <c r="U7" t="n">
-        <v>6949.2665</v>
+        <v>36025.3183210014</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>23685.681399</v>
+        <v>79668.7114526208</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>5400.8</v>
+        <v>39117.6609268015</v>
       </c>
       <c r="AB7" t="n">
-        <v>6975.2</v>
+        <v>46354.0840013894</v>
       </c>
       <c r="AC7" t="n">
-        <v>2241.91</v>
+        <v>11687.5693385345</v>
       </c>
       <c r="AD7" t="n">
-        <v>8677.65153330417</v>
+        <v>30204.1137518113</v>
       </c>
       <c r="AE7" t="n">
-        <v>26652.6796423803</v>
+        <v>150630.298452356</v>
       </c>
       <c r="AF7" t="n">
-        <v>24829.300334787</v>
+        <v>141032.656312021</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>2267.02691161863</v>
+        <v>12626.7878501184</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5868.48593950633</v>
+        <v>18153.5182283015</v>
       </c>
       <c r="C8" t="n">
-        <v>1180.90136641136</v>
+        <v>5178.76829291255</v>
       </c>
       <c r="D8" t="n">
-        <v>565.07707512</v>
+        <v>64.7964984290725</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>-16654.5988233383</v>
+        <v>-16975.5994</v>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>215904.359776761</v>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>24986.86</v>
+        <v>99442.81236084089</v>
       </c>
       <c r="J8" t="n">
-        <v>106554.741342974</v>
+        <v>386976.202060859</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>218141.812916908</v>
+        <v>739961.862717465</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>579.864</v>
-      </c>
-      <c r="O8" t="n">
-        <v>216314.380142192</v>
-      </c>
+        <v>6877.3873</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>86555.88131885329</v>
+        <v>326699.785529849</v>
       </c>
       <c r="T8" t="n">
-        <v>1965.08540190759</v>
+        <v>9002.0361225834</v>
       </c>
       <c r="U8" t="n">
-        <v>8814.8529</v>
+        <v>39004.5419</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>27656.6856117</v>
+        <v>86545.4126052044</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>6477.4</v>
+        <v>43604.8474</v>
       </c>
       <c r="AB8" t="n">
-        <v>8643.200000000001</v>
+        <v>50112.471</v>
       </c>
       <c r="AC8" t="n">
-        <v>2807.754</v>
+        <v>12564.6913470223</v>
       </c>
       <c r="AD8" t="n">
-        <v>10164.411263578</v>
+        <v>32457.4871777187</v>
       </c>
       <c r="AE8" t="n">
-        <v>32611.6928395063</v>
+        <v>163440.069875324</v>
       </c>
       <c r="AF8" t="n">
-        <v>36912.0366299894</v>
+        <v>143956.455131472</v>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>2530.16247702759</v>
+        <v>9066.832621012471</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7699.66915663589</v>
+        <v>19470.8227068292</v>
       </c>
       <c r="C9" t="n">
-        <v>2387.234</v>
+        <v>5489.72832388901</v>
       </c>
       <c r="D9" t="n">
-        <v>671.5455328</v>
+        <v>37.1670105966569</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-23423.0596286863</v>
+        <v>-14578.44</v>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>266421.999212496</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>31292.06</v>
+        <v>106068.6655001</v>
       </c>
       <c r="J9" t="n">
-        <v>128108.491182388</v>
+        <v>424735.601757396</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>269243.210697663</v>
+        <v>819295.911707024</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>965.6565000000001</v>
-      </c>
-      <c r="O9" t="n">
-        <v>265810.30584365</v>
-      </c>
+        <v>7821.9878561837</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>110154.346282124</v>
+        <v>369023.838153723</v>
       </c>
       <c r="T9" t="n">
-        <v>2507.65918760924</v>
+        <v>9884.90494472952</v>
       </c>
       <c r="U9" t="n">
-        <v>11964.83</v>
+        <v>44128.6648</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>35304.8632</v>
+        <v>93844.283915112</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>7887.9</v>
+        <v>48652.99</v>
       </c>
       <c r="AB9" t="n">
-        <v>10812.3</v>
+        <v>58437.57</v>
       </c>
       <c r="AC9" t="n">
-        <v>3364.59583</v>
+        <v>13490.5172820562</v>
       </c>
       <c r="AD9" t="n">
-        <v>13407.8668486705</v>
+        <v>36065.8888142503</v>
       </c>
       <c r="AE9" t="n">
-        <v>41729.2949866359</v>
+        <v>184180.564788885</v>
       </c>
       <c r="AF9" t="n">
-        <v>48052.8173486705</v>
+        <v>155446.270494423</v>
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>3179.20472040924</v>
+        <v>9922.071955326181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9460.833588088481</v>
+        <v>19927.104859473</v>
       </c>
       <c r="C10" t="n">
-        <v>2058.48412312994</v>
+        <v>5564.97705870646</v>
       </c>
       <c r="D10" t="n">
-        <v>786.67899013</v>
+        <v>78.2388014424875</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-24226.7682600739</v>
+        <v>-7059.7435318837</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>316030.337526745</v>
+        <v>914327.1016779901</v>
       </c>
       <c r="I10" t="n">
-        <v>43538.17006</v>
+        <v>121067.963973332</v>
       </c>
       <c r="J10" t="n">
-        <v>150701.731330878</v>
+        <v>476220.237342643</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>319027.493379762</v>
+        <v>914193.761113759</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>1337.06</v>
+        <v>7691.436976</v>
       </c>
       <c r="O10" t="n">
-        <v>314045.425793764</v>
+        <v>919281.129066646</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>136396.15753369</v>
+        <v>406086.441726853</v>
       </c>
       <c r="T10" t="n">
-        <v>3162.56915715007</v>
+        <v>11745.6665216678</v>
       </c>
       <c r="U10" t="n">
-        <v>14897.94</v>
+        <v>49227.84647</v>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>39556.3366666667</v>
+        <v>95553.6922246562</v>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>9925.1</v>
+        <v>49586.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>13696.1</v>
+        <v>61347.75</v>
       </c>
       <c r="AC10" t="n">
-        <v>5156.87594</v>
+        <v>15311.2321298458</v>
       </c>
       <c r="AD10" t="n">
-        <v>15231.3795168624</v>
+        <v>35379.6491684013</v>
       </c>
       <c r="AE10" t="n">
-        <v>53136.8495280885</v>
+        <v>195400.633459319</v>
       </c>
       <c r="AF10" t="n">
-        <v>62165.0936999923</v>
+        <v>169704.027176439</v>
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>3949.24814728007</v>
+        <v>11823.9053231103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9575.127759538869</v>
+        <v>25564.6825168457</v>
       </c>
       <c r="C11" t="n">
-        <v>2301.97622114401</v>
+        <v>6058.41796999713</v>
       </c>
       <c r="D11" t="n">
-        <v>1739.684</v>
+        <v>52.6757311663522</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>-15037.1077173648</v>
+        <v>-9173.49237174794</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>340319.951541934</v>
+        <v>983751.20256033</v>
       </c>
       <c r="I11" t="n">
-        <v>41421.256</v>
+        <v>135917.085915327</v>
       </c>
       <c r="J11" t="n">
-        <v>167098.092620806</v>
+        <v>514241.226369918</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>342482.489268583</v>
+        <v>984457.67417698</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>1733.808814</v>
+        <v>8496.194</v>
       </c>
       <c r="O11" t="n">
-        <v>340902.812581147</v>
+        <v>986515.202291903</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>156590.904364369</v>
+        <v>424709.970751593</v>
       </c>
       <c r="T11" t="n">
-        <v>3817.29234893689</v>
+        <v>12889.7094648449</v>
       </c>
       <c r="U11" t="n">
-        <v>15486.184512</v>
+        <v>47702.56788</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>41962.7575438905</v>
+        <v>97932.4102311434</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>12302.6</v>
+        <v>53979.95</v>
       </c>
       <c r="AB11" t="n">
-        <v>16115.6</v>
+        <v>64049.01</v>
       </c>
       <c r="AC11" t="n">
-        <v>6246.031731</v>
+        <v>16258.2862149383</v>
       </c>
       <c r="AD11" t="n">
-        <v>17865.004404869</v>
+        <v>41775.0686905184</v>
       </c>
       <c r="AE11" t="n">
-        <v>59725.5440025389</v>
+        <v>207554.496611784</v>
       </c>
       <c r="AF11" t="n">
-        <v>63322.045440013</v>
+        <v>192246.766575842</v>
       </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="n">
-        <v>5556.97634893689</v>
+        <v>12942.3851960112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11466.3370013079</v>
+        <v>27574.1581855935</v>
       </c>
       <c r="C12" t="n">
-        <v>2748.03668278315</v>
+        <v>7252.73691748177</v>
       </c>
       <c r="D12" t="n">
-        <v>1616.8047858</v>
+        <v>28.4166619165909</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>-15097.60101504</v>
+        <v>-24507.8747332783</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>399759.54431409</v>
+        <v>1005451.31315167</v>
       </c>
       <c r="I12" t="n">
-        <v>56850.276715</v>
+        <v>145945.408011223</v>
       </c>
       <c r="J12" t="n">
-        <v>190967.992555868</v>
+        <v>530579.637406671</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>402513.713615745</v>
+        <v>1006022.39629103</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>2428.6760257363</v>
+        <v>9851.821099999999</v>
       </c>
       <c r="O12" t="n">
-        <v>401512.8</v>
+        <v>1013567.00223068</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>192300.19898496</v>
+        <v>428247.986933262</v>
       </c>
       <c r="T12" t="n">
-        <v>5174.52257056832</v>
+        <v>14565.0244393315</v>
       </c>
       <c r="U12" t="n">
-        <v>17680.81</v>
+        <v>48002.10292</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>52672.5909182424</v>
+        <v>88546.7383924515</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>16207.243134</v>
+        <v>57360.01</v>
       </c>
       <c r="AB12" t="n">
-        <v>20584.5011</v>
+        <v>54847.98</v>
       </c>
       <c r="AC12" t="n">
-        <v>6137.51478653894</v>
+        <v>16958.6769941084</v>
       </c>
       <c r="AD12" t="n">
-        <v>15378.6528496921</v>
+        <v>41073.3409789894</v>
       </c>
       <c r="AE12" t="n">
-        <v>72076.40602184679</v>
+        <v>204742.928099702</v>
       </c>
       <c r="AF12" t="n">
-        <v>77405.6422732115</v>
+        <v>204123.307007694</v>
       </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
-        <v>6791.32735636832</v>
+        <v>14593.4411012481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14026.2673595599</v>
+        <v>30467.7594214567</v>
       </c>
       <c r="C13" t="n">
-        <v>3211.54652427159</v>
+        <v>8232.368392807981</v>
       </c>
       <c r="D13" t="n">
-        <v>2436.88325064</v>
+        <v>27.4771369046732</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>-12163.3</v>
+        <v>-29718.7717479337</v>
       </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>1141230.78321198</v>
+      </c>
       <c r="I13" t="n">
-        <v>82711.24572000001</v>
+        <v>162808.795544078</v>
       </c>
       <c r="J13" t="n">
-        <v>222528.353703888</v>
+        <v>590403.420620558</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>470145.444669974</v>
+        <v>1142252.61550946</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>3075.524</v>
+        <v>10501.645</v>
       </c>
       <c r="O13" t="n">
-        <v>473104.048647262</v>
+        <v>1149236.97861087</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>228829.248313902</v>
+        <v>499830.048974518</v>
       </c>
       <c r="T13" t="n">
-        <v>6219.44472476208</v>
+        <v>14014.790854207</v>
       </c>
       <c r="U13" t="n">
-        <v>22823.75</v>
+        <v>56043.7319611707</v>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>62270.8052059079</v>
+        <v>99220.07873174841</v>
       </c>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>62503.83</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>74270.47</v>
+      </c>
       <c r="AC13" t="n">
-        <v>7588.84553154888</v>
+        <v>16296.9556922389</v>
       </c>
       <c r="AD13" t="n">
-        <v>18179.7255844843</v>
+        <v>50162.1034602895</v>
       </c>
       <c r="AE13" t="n">
-        <v>44438.8628911087</v>
+        <v>239582.747074866</v>
       </c>
       <c r="AF13" t="n">
-        <v>107178.041828756</v>
+        <v>231704.912397176</v>
       </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
-        <v>8656.32797540208</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>15975.699022643</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4093.77579032463</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3023.71713953408</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>-14632.4</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>103907.53375</v>
-      </c>
-      <c r="J14" t="n">
-        <v>256676.808411383</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>518431.549566028</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>4411.210982584</v>
-      </c>
-      <c r="O14" t="n">
-        <v>519470.099169899</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>242844.098793121</v>
-      </c>
-      <c r="T14" t="n">
-        <v>6622.54401217583</v>
-      </c>
-      <c r="U14" t="n">
-        <v>25818.1619120047</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
-        <v>68866.0282853542</v>
-      </c>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="n">
-        <v>23930.6977</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>31411.0283</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8708.27953300119</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>17606.9309466254</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>105843.866467649</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>130019.451469534</v>
-      </c>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="n">
-        <v>9646.26115170991</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>17800.8965164729</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3305.04944049902</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3944.13356723779</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>-14552.0992661429</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>87877.793724</v>
-      </c>
-      <c r="J15" t="n">
-        <v>299072.279678504</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>582656.905328346</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>5127.9177</v>
-      </c>
-      <c r="O15" t="n">
-        <v>588018.755871842</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>272458.256605699</v>
-      </c>
-      <c r="T15" t="n">
-        <v>7707.34359611097</v>
-      </c>
-      <c r="U15" t="n">
-        <v>29030.3639</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="n">
-        <v>73536.4115246</v>
-      </c>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="n">
-        <v>28743.9264</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>35993.5842</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10090.9631662903</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>23563.1681254065</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>121659.734182763</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>119873.928989906</v>
-      </c>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="n">
-        <v>11651.4771633488</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>16488.5668194302</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3722.38381265012</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4155.04333637012</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>-16151.57</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>100225.70315057</v>
-      </c>
-      <c r="J16" t="n">
-        <v>328602.760376038</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>644879.278299285</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>5869.4274</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>299509.478419687</v>
-      </c>
-      <c r="T16" t="n">
-        <v>8161.87595243448</v>
-      </c>
-      <c r="U16" t="n">
-        <v>32362.8343</v>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="n">
-        <v>78643.1124359994</v>
-      </c>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="n">
-        <v>33680.572168</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>40438.81373</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10672.2051321483</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>23715.7322156423</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>133642.992149579</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>133533.246578863</v>
-      </c>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="n">
-        <v>12316.9192888046</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>17445.6658646293</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3437.69954155695</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3876.18897518434</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>-22346.4946725484</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>100647.830818652</v>
-      </c>
-      <c r="J17" t="n">
-        <v>357432.025853695</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>685655.860277758</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>6743.0122</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>304439.09807552</v>
-      </c>
-      <c r="T17" t="n">
-        <v>8750.59887493405</v>
-      </c>
-      <c r="U17" t="n">
-        <v>36025.3183210014</v>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="n">
-        <v>79668.7114526208</v>
-      </c>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="n">
-        <v>39117.6609268015</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>46354.0840013894</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11687.5693385345</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>30204.1137518113</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>150630.298452356</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>141032.656312021</v>
-      </c>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="n">
-        <v>12626.7878501184</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>18153.5182283015</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5178.76829291255</v>
-      </c>
-      <c r="D18" t="n">
-        <v>64.7964984290725</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>-16975.5994</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>99442.81236084089</v>
-      </c>
-      <c r="J18" t="n">
-        <v>386976.202060859</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>739961.862717465</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>6877.3873</v>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>326699.785529849</v>
-      </c>
-      <c r="T18" t="n">
-        <v>9002.0361225834</v>
-      </c>
-      <c r="U18" t="n">
-        <v>39004.5419</v>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="n">
-        <v>86545.4126052044</v>
-      </c>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="n">
-        <v>43604.8474</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>50112.471</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>12564.6913470223</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>32457.4871777187</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>163440.069875324</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>143956.455131472</v>
-      </c>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="n">
-        <v>9066.832621012471</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>19470.8227068292</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5489.72832388901</v>
-      </c>
-      <c r="D19" t="n">
-        <v>37.1670105966569</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>-14578.44</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>106068.6655001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>424735.601757396</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>819295.911707024</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>7821.9878561837</v>
-      </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>369023.838153723</v>
-      </c>
-      <c r="T19" t="n">
-        <v>9884.90494472952</v>
-      </c>
-      <c r="U19" t="n">
-        <v>44128.6648</v>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="n">
-        <v>93844.283915112</v>
-      </c>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="n">
-        <v>48652.99</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>58437.57</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>13490.5172820562</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>36065.8888142503</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>184180.564788885</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>155446.270494423</v>
-      </c>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="n">
-        <v>9922.071955326181</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19927.104859473</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5564.97705870646</v>
-      </c>
-      <c r="D20" t="n">
-        <v>78.2388014424875</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>-7059.7435318837</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>914327.1016779901</v>
-      </c>
-      <c r="I20" t="n">
-        <v>121067.963973332</v>
-      </c>
-      <c r="J20" t="n">
-        <v>476220.237342643</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>914193.761113759</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>7691.436976</v>
-      </c>
-      <c r="O20" t="n">
-        <v>919281.129066646</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>406086.441726853</v>
-      </c>
-      <c r="T20" t="n">
-        <v>11745.6665216678</v>
-      </c>
-      <c r="U20" t="n">
-        <v>49227.84647</v>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="n">
-        <v>95553.6922246562</v>
-      </c>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="n">
-        <v>49586.7</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>61347.75</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>15311.2321298458</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>35379.6491684013</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>195400.633459319</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>169704.027176439</v>
-      </c>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="n">
-        <v>11823.9053231103</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>25564.6825168457</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6058.41796999713</v>
-      </c>
-      <c r="D21" t="n">
-        <v>52.6757311663522</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>-9173.49237174794</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>983751.20256033</v>
-      </c>
-      <c r="I21" t="n">
-        <v>135917.085915327</v>
-      </c>
-      <c r="J21" t="n">
-        <v>514241.226369918</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>984457.67417698</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>8496.194</v>
-      </c>
-      <c r="O21" t="n">
-        <v>986515.202291903</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>424709.970751593</v>
-      </c>
-      <c r="T21" t="n">
-        <v>12889.7094648449</v>
-      </c>
-      <c r="U21" t="n">
-        <v>47702.56788</v>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="n">
-        <v>97932.4102311434</v>
-      </c>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="n">
-        <v>53979.95</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>64049.01</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>16258.2862149383</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>41775.0686905184</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>207554.496611784</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>192246.766575842</v>
-      </c>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="n">
-        <v>12942.3851960112</v>
+        <v>14042.2679911117</v>
       </c>
     </row>
   </sheetData>
